--- a/data/data analysis/Champion Stat.xlsx
+++ b/data/data analysis/Champion Stat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elhanes\Desktop\Side Project\data\data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C1C499-05CC-4EC2-B54B-EE4A80BA2599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AFB678-C27C-4AC4-A8CC-8B1DE2609BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30645" yWindow="3660" windowWidth="23325" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3060" yWindow="2595" windowWidth="23325" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <dimension ref="B2:W151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
